--- a/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
@@ -451,827 +451,1117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>090010</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>大成中证红利指数A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.82</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>161907</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>94.92</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>98.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>96.60</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>515690</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华中证高股息龙头ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>97.81</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005541</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005542</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1281,7 +1571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,15 +1592,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>010379</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>广发均衡优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>009887</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>广发稳健优选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4097</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009887</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.93</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>63.93</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.80</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>270022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>广发内需增长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>63.90</t>
+          <t>18.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7561</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010380</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发均衡优选混合C</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>63.90</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>110025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>易方达资源行业混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5786</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4524</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009999</t>
+          <t>900008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方中国红利混合</t>
+          <t>中信证券稳健回报混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>79.40</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>270022</t>
+          <t>010380</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发内需增长混合A</t>
+          <t>广发均衡优选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011183</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发内需增长混合C</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>87.39</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010461</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>民生加银康利混合</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28.28</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001105</t>
+          <t>900078</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>信达澳银转型创新股票</t>
+          <t>中信证券稳健回报混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>510890</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>兴业上证红利低波动ETF</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>001105</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>信达澳银转型创新股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1910,25 +2420,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>96.99</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>515690</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鹏华中证高股息龙头ETF</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>95.85</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2050,25 +2610,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>000756</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>建信潜力新蓝筹股票</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>515690</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>鹏华中证高股息龙头ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>110025</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>易方达资源行业混合</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>57.03</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>8</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2190,25 +2800,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>009999</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>东方中国红利混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>010461</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>民生加银康利混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>5</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>60.72</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002844</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>金鹰多元策略灵活配置混合</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>54.19</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>002844</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>金鹰多元策略灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>900008</t>
+          <t>011183</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合A</t>
+          <t>广发内需增长混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>900078</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3291,4 +3292,2412 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>133.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5714</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5344</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3775</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2848</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1238</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0972</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6910</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3235</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>51.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>51.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>57.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5700,4 +5701,5112 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.9008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7836</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3687</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3490</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0541</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4508</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3878</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2518</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1205</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0314</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9116</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8075</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7512</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7284</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7251</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6444</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6228</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6225</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5985</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5267</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4720</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4433</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3598</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>28.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>28.43</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>62.44</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>56.83</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>56.83</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10809,4 +10810,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600188-兖州煤业.xlsx
@@ -10834,12 +10834,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>
